--- a/deployment/Omaha_Cal_Info_GA02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GA02HYPM_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="71">
   <si>
     <t>Ref Des</t>
   </si>
@@ -160,12 +160,6 @@
     <t>GA02HYPM-00002</t>
   </si>
   <si>
-    <t>42° 58.850’ S</t>
-  </si>
-  <si>
-    <t>42° 32.515’ W</t>
-  </si>
-  <si>
     <t>NBP-15-10</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>14880</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Not Deployed</t>
   </si>
   <si>
@@ -248,6 +239,12 @@
   </si>
   <si>
     <t>OL000059</t>
+  </si>
+  <si>
+    <t>42° 58.850' S</t>
+  </si>
+  <si>
+    <t>42° 32.515' W</t>
   </si>
 </sst>
 </file>
@@ -1845,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1867,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1908,7 +1905,7 @@
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>40</v>
@@ -1927,20 +1924,26 @@
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="J2" s="16">
         <v>5196</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="M2" s="18">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>-42.980833333333337</v>
+      </c>
+      <c r="N2" s="18">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-42.541916666666665</v>
+      </c>
     </row>
     <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="19"/>
@@ -2013,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2024,12 +2027,12 @@
     <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -2038,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -2047,7 +2050,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
@@ -2068,7 +2071,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>41</v>
@@ -2077,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F3" s="33">
         <v>4015</v>
@@ -2097,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
@@ -2106,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4" s="33">
         <v>4015</v>
@@ -2123,7 +2126,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
@@ -2132,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="33">
         <v>4015</v>
@@ -2149,7 +2152,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>41</v>
@@ -2158,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F6" s="33">
         <v>4015</v>
@@ -2175,7 +2178,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>41</v>
@@ -2184,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F7" s="33">
         <v>4015</v>
@@ -2204,7 +2207,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>41</v>
@@ -2213,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F8" s="33">
         <v>4015</v>
@@ -2233,7 +2236,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>41</v>
@@ -2242,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" s="33">
         <v>4015</v>
@@ -2262,7 +2265,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>41</v>
@@ -2271,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F10" s="33">
         <v>4015</v>
@@ -2296,16 +2299,16 @@
         <v>32</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="28">
         <v>2197</v>
@@ -2325,16 +2328,16 @@
         <v>32</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="F13" s="28">
         <v>2197</v>
@@ -2356,7 +2359,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>41</v>
@@ -2365,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="28">
         <v>152</v>
@@ -2382,7 +2385,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>41</v>
@@ -2391,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" s="28">
         <v>152</v>
@@ -2413,7 +2416,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>41</v>
@@ -2422,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F18" s="28">
         <v>1255</v>
@@ -2439,7 +2442,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
@@ -2448,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" s="28">
         <v>1255</v>
@@ -2470,7 +2473,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>41</v>
@@ -2479,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21" s="28">
         <v>4016</v>
@@ -2499,7 +2502,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>41</v>
@@ -2508,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" s="28">
         <v>4016</v>
@@ -2525,7 +2528,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>41</v>
@@ -2534,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F23" s="28">
         <v>4016</v>
@@ -2551,7 +2554,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>41</v>
@@ -2560,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F24" s="28">
         <v>4016</v>
@@ -2577,7 +2580,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>41</v>
@@ -2586,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F25" s="28">
         <v>4016</v>
@@ -2606,7 +2609,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>41</v>
@@ -2615,7 +2618,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F26" s="28">
         <v>4016</v>
@@ -2635,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>41</v>
@@ -2644,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F27" s="28">
         <v>4016</v>
@@ -2664,7 +2667,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>41</v>
@@ -2673,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F28" s="28">
         <v>4016</v>
@@ -2698,7 +2701,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>41</v>
@@ -2707,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30" s="28">
         <v>2196</v>
@@ -2724,7 +2727,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>41</v>
@@ -2733,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F31" s="28">
         <v>2196</v>
@@ -2750,12 +2753,12 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
@@ -2764,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F33" s="28">
         <v>153</v>
@@ -2776,12 +2779,12 @@
         <v>-42.980833333333337</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
@@ -2790,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F34" s="28">
         <v>153</v>
@@ -2802,17 +2805,17 @@
         <v>-42.541916666666665</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>41</v>
@@ -2821,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F36" s="28">
         <v>1254</v>
@@ -2833,12 +2836,12 @@
         <v>-42.980833333333337</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>41</v>
@@ -2847,7 +2850,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F37" s="28">
         <v>1254</v>
@@ -2859,74 +2862,64 @@
         <v>-42.541916666666665</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="I39" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="31"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="I41" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" s="24"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>41</v>
@@ -2935,10 +2928,10 @@
         <v>2</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G43" s="27" t="s">
         <v>5</v>
@@ -2948,12 +2941,12 @@
       </c>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>41</v>
@@ -2962,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>6</v>
@@ -2975,12 +2968,12 @@
       </c>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>41</v>
@@ -2989,10 +2982,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>7</v>
@@ -3002,19 +2995,19 @@
       </c>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>41</v>
@@ -3023,21 +3016,21 @@
         <v>2</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>41</v>
@@ -3046,10 +3039,10 @@
         <v>2</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
@@ -3057,10 +3050,10 @@
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>41</v>
@@ -3069,10 +3062,10 @@
         <v>2</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>

--- a/deployment/Omaha_Cal_Info_GA02HYPM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GA02HYPM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtravis\Desktop\Cal Sheet project\GA cal sheets RT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="96">
   <si>
     <t>Ref Des</t>
   </si>
@@ -245,20 +245,96 @@
   </si>
   <si>
     <t>42° 32.515' W</t>
+  </si>
+  <si>
+    <t>Induction ID</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>CC_wbotc</t>
+  </si>
+  <si>
+    <t>CC_a0</t>
+  </si>
+  <si>
+    <t>CC_a1</t>
+  </si>
+  <si>
+    <t>CC_a2</t>
+  </si>
+  <si>
+    <t>CC_a3</t>
+  </si>
+  <si>
+    <t>CC_ptempa0</t>
+  </si>
+  <si>
+    <t>CC_ptempa1</t>
+  </si>
+  <si>
+    <t>CC_ptempa2</t>
+  </si>
+  <si>
+    <t>CC_ptca0</t>
+  </si>
+  <si>
+    <t>CC_ptca1</t>
+  </si>
+  <si>
+    <t>CC_ptca2</t>
+  </si>
+  <si>
+    <t>CC_ptcb0</t>
+  </si>
+  <si>
+    <t>CC_ptcb1</t>
+  </si>
+  <si>
+    <t>CC_ptcb2</t>
+  </si>
+  <si>
+    <t>CC_pa0</t>
+  </si>
+  <si>
+    <t>CC_pa1</t>
+  </si>
+  <si>
+    <t>CC_pa2</t>
+  </si>
+  <si>
+    <t>CC_g</t>
+  </si>
+  <si>
+    <t>CC_h</t>
+  </si>
+  <si>
+    <t>CC_i</t>
+  </si>
+  <si>
+    <t>CC_j</t>
+  </si>
+  <si>
+    <t>CC_cpcor</t>
+  </si>
+  <si>
+    <t>CC_ctcor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,11 +632,13 @@
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -572,6 +650,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBFBFBF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1185,7 +1276,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1255,7 +1346,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1288,6 +1378,39 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="36" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="48" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="231">
@@ -1842,31 +1965,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="13.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1903,7 +2026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>55</v>
       </c>
@@ -1945,60 +2068,60 @@
         <v>-42.541916666666665</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
     </row>
-    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
     </row>
-    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
     </row>
-    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
     </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="19"/>
       <c r="F13" s="20"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E14" s="19"/>
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E16" s="19"/>
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
@@ -2016,31 +2139,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -2049,7 +2172,7 @@
       <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -2065,8 +2188,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -2082,21 +2205,21 @@
       <c r="E3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>4015</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="32">
         <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -2111,18 +2234,18 @@
       <c r="E4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>4015</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <v>1.646E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -2137,18 +2260,18 @@
       <c r="E5" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>4015</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="32">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -2163,18 +2286,18 @@
       <c r="E6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>4015</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -2189,21 +2312,21 @@
       <c r="E7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>4015</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>140</v>
       </c>
       <c r="I7" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -2218,21 +2341,21 @@
       <c r="E8" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>4015</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>700</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -2247,21 +2370,21 @@
       <c r="E9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>4015</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="33">
         <v>1.0960000000000001</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="24" t="s">
@@ -2276,25 +2399,25 @@
       <c r="E10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>4015</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>3.9E-2</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2310,21 +2433,21 @@
       <c r="E12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>2197</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>-42.980833333333337</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -2339,22 +2462,22 @@
       <c r="E13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>2197</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>-42.541916666666665</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2370,18 +2493,18 @@
       <c r="E15" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>152</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <v>-42.980833333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -2396,22 +2519,22 @@
       <c r="E16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>152</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <v>-42.541916666666665</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -2427,18 +2550,18 @@
       <c r="E18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>1255</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>-42.980833333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="24" t="s">
@@ -2453,22 +2576,22 @@
       <c r="E19" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>1255</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="31">
         <v>-42.541916666666665</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2484,21 +2607,21 @@
       <c r="E21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>4016</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <v>44</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="24" t="s">
@@ -2513,18 +2636,18 @@
       <c r="E22" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <v>4016</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="27">
         <v>1.64E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="24" t="s">
@@ -2539,18 +2662,18 @@
       <c r="E23" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>4016</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -2565,18 +2688,18 @@
       <c r="E24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>4016</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="24" t="s">
@@ -2591,21 +2714,21 @@
       <c r="E25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>4016</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="27">
         <v>140</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -2620,21 +2743,21 @@
       <c r="E26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>4016</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="27">
         <v>700</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="24" t="s">
@@ -2649,21 +2772,21 @@
       <c r="E27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>4016</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="33">
         <v>1.0960000000000001</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -2678,25 +2801,25 @@
       <c r="E28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>4016</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="27">
         <v>3.9E-2</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -2712,18 +2835,18 @@
       <c r="E30" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <v>2196</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="31">
         <v>-42.980833333333337</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="24" t="s">
@@ -2738,22 +2861,22 @@
       <c r="E31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>2196</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="31">
         <v>-42.541916666666665</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2769,18 +2892,18 @@
       <c r="E33" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>153</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="31">
         <v>-42.980833333333337</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="24" t="s">
@@ -2795,22 +2918,22 @@
       <c r="E34" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="27">
         <v>153</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="31">
         <v>-42.541916666666665</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -2826,18 +2949,18 @@
       <c r="E36" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="27">
         <v>1254</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="31">
         <v>-42.980833333333337</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -2852,22 +2975,22 @@
       <c r="E37" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="27">
         <v>1254</v>
       </c>
-      <c r="G37" s="27" t="s">
+      <c r="G37" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="31">
         <v>-42.541916666666665</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I39" s="24" t="s">
         <v>53</v>
       </c>
@@ -2880,16 +3003,16 @@
       <c r="L39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O39" s="31"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="O39" s="30"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+    </row>
+    <row r="41" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="I41" s="24" t="s">
         <v>53</v>
       </c>
@@ -2903,18 +3026,18 @@
         <v>41</v>
       </c>
       <c r="N41" s="24"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="O41" s="30"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+    </row>
+    <row r="42" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="24"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>43</v>
       </c>
@@ -2930,161 +3053,871 @@
       <c r="E43" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="37">
+        <v>39</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="38">
+        <v>163</v>
+      </c>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="39">
+        <v>-42.980833333333337</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="43"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="44">
+        <v>2</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="39">
+        <v>-42.541916666666665</v>
+      </c>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="43"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="44">
+        <v>2</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H46" s="37">
         <v>1450</v>
       </c>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="43"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="24" t="s">
+      <c r="B47" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="44">
+        <v>2</v>
+      </c>
+      <c r="E47" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F47" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="32">
-        <v>-42.980833333333337</v>
-      </c>
-      <c r="I44" s="23"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="G47" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="45">
+        <v>-9.5880999999999997E-8</v>
+      </c>
+      <c r="I47" s="41"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="43"/>
+    </row>
+    <row r="48" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="24" t="s">
+      <c r="B48" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="44">
+        <v>2</v>
+      </c>
+      <c r="E48" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F48" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="32">
-        <v>-42.541916666666665</v>
-      </c>
-      <c r="I45" s="23"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="G48" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="46">
+        <v>-1.3616419999999999E-4</v>
+      </c>
+      <c r="I48" s="42"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="43"/>
+    </row>
+    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="44">
+        <v>2</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="46">
+        <v>3.1150729999999998E-4</v>
+      </c>
+      <c r="I49" s="42"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="43"/>
+    </row>
+    <row r="50" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="44">
+        <v>2</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="46">
+        <v>-4.8053079999999998E-6</v>
+      </c>
+      <c r="I50" s="42"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="43"/>
+    </row>
+    <row r="51" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="44">
+        <v>2</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="46">
+        <v>2.1220359999999999E-7</v>
+      </c>
+      <c r="I51" s="42"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="43"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="44">
+        <v>2</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="45">
+        <v>197.02119999999999</v>
+      </c>
+      <c r="I52" s="42"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="43"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="44">
+        <v>2</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="45">
+        <v>-6.4862520000000007E-2</v>
+      </c>
+      <c r="I53" s="42"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="43"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="44">
+        <v>2</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="45">
+        <v>-1.0588299999999999E-6</v>
+      </c>
+      <c r="I54" s="42"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="43"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="44">
+        <v>2</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="45">
+        <v>524047.4</v>
+      </c>
+      <c r="I55" s="42"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="43"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="44">
+        <v>2</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" s="45">
+        <v>-0.83995960000000003</v>
+      </c>
+      <c r="I56" s="42"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="43"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="44">
+        <v>2</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="45">
+        <v>1.3101130000000001E-2</v>
+      </c>
+      <c r="I57" s="42"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="43"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="44">
+        <v>2</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" s="45">
+        <v>25.10388</v>
+      </c>
+      <c r="I58" s="42"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="43"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="44">
+        <v>2</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="45">
+        <v>-2.2499999999999999E-4</v>
+      </c>
+      <c r="I59" s="42"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="43"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="44">
+        <v>2</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="45">
+        <v>0</v>
+      </c>
+      <c r="I60" s="42"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="43"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="44">
+        <v>2</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" s="46">
+        <v>-4.9620520000000001E-2</v>
+      </c>
+      <c r="I61" s="42"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="43"/>
+    </row>
+    <row r="62" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="44">
+        <v>2</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" s="46">
+        <v>4.4779199999999998E-3</v>
+      </c>
+      <c r="I62" s="42"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="43"/>
+    </row>
+    <row r="63" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="44">
+        <v>2</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="46">
+        <v>-3.2733420000000003E-11</v>
+      </c>
+      <c r="I63" s="42"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="43"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="44">
+        <v>2</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H64" s="45">
+        <v>-0.98205240000000005</v>
+      </c>
+      <c r="I64" s="42"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="43"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="44">
+        <v>2</v>
+      </c>
+      <c r="E65" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" s="45">
+        <v>0.14454249999999999</v>
+      </c>
+      <c r="I65" s="42"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="43"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="44">
+        <v>2</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="45">
+        <v>-9.8920189999999995E-5</v>
+      </c>
+      <c r="I66" s="42"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="43"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="44">
+        <v>2</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" s="45">
+        <v>2.7659789999999998E-5</v>
+      </c>
+      <c r="I67" s="42"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="43"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="44">
+        <v>2</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" s="45">
+        <v>-9.5700000000000003E-8</v>
+      </c>
+      <c r="I68" s="42"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="43"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="44">
+        <v>2</v>
+      </c>
+      <c r="E69" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69" s="45">
+        <v>3.2499999999999998E-6</v>
+      </c>
+      <c r="I69" s="42"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="43"/>
+    </row>
+    <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+    </row>
+    <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="24" t="s">
+      <c r="B71" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F71" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="23"/>
-    </row>
-    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="23"/>
+    </row>
+    <row r="72" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="24" t="s">
+      <c r="B72" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F72" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="23"/>
+    </row>
+    <row r="73" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="24" t="s">
+      <c r="B73" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F73" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="23"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="23"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
